--- a/_inbox/OperationRecordOfSectionTreeCreation.xlsx
+++ b/_inbox/OperationRecordOfSectionTreeCreation.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itok3\gitrepo\help3x.github.io\_inbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KitoWork\github\help3x.github.io\_inbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A755632-8DA1-444B-A0CC-8B84598626E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5C1D28C4-92B5-4248-88EE-518F88486E15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="2019年度" sheetId="1" r:id="rId1"/>
+    <sheet name="2019年度部署ツリー作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -148,37 +147,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2019年度で追加される部門を2018年度の部署ツリーに登録するSQL作成。</t>
-    <rPh sb="4" eb="6">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ブモン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ネンド</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ブショ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作業時間</t>
     <rPh sb="0" eb="2">
       <t>サギョウ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2019年度で追加される部門を、2018年度の部署ツリーに登録するSQL作成。</t>
+    <rPh sb="4" eb="6">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -186,9 +185,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -242,13 +241,13 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -269,6 +268,69 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3005951" cy="564514"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5953125" y="295275"/>
+          <a:ext cx="3005951" cy="564514"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メール書いたりなんだりかんだり</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>やっている時間も入れたほうがよかったか。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -567,7 +629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0370F691-C69E-48F7-B91E-7BB56D0A9D87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -579,7 +641,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -604,7 +666,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="4">
         <f>SUM(D5:D9)</f>
-        <v>0.30208333332848269</v>
+        <v>0.37152777777373558</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -674,14 +736,18 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1">
+        <v>43551.361111111109</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43551.430555555555</v>
+      </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444445252884E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -780,5 +846,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/_inbox/OperationRecordOfSectionTreeCreation.xlsx
+++ b/_inbox/OperationRecordOfSectionTreeCreation.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>2019年度部署ツリーに合わせて部署を並べ替える。</t>
     <rPh sb="4" eb="6">
@@ -68,13 +68,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時間</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
@@ -104,20 +97,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A版</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B版</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>階層見直し。</t>
     <rPh sb="0" eb="2">
       <t>カイソウ</t>
@@ -178,6 +157,184 @@
     </rPh>
     <rPh sb="36" eb="38">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織変更に関する問い合わせ</t>
+    <rPh sb="0" eb="2">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A版の回答確認、修正案の作成。</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B版作成（⇒A版として送った模様）</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A版作成</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B版作成。</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B版作成（TC分の回答を反映）。</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL作成、検証。</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSCからDump受領。ホスト項目ゼロ初期化の検証。</t>
+    <rPh sb="9" eb="11">
+      <t>ジュリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ショキカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B版作成</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間（h）</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせの返信</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その返信に対する問い合わせの返信</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -187,7 +344,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -206,7 +363,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +373,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,23 +397,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -268,69 +437,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3005951" cy="564514"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5953125" y="295275"/>
-          <a:ext cx="3005951" cy="564514"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>メール書いたりなんだりかんだり</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>やっている時間も入れたほうがよかったか。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -630,7 +736,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,12 +745,18 @@
     <col min="1" max="3" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F2" t="str">
+        <f>ROUNDDOWN(D4/8,0) &amp; "人日と" &amp; ROUNDUP((D4-ROUNDDOWN(D4,0))*60,0) &amp; "分消費"</f>
+        <v>6人日と6分消費</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -652,200 +764,363 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6">
+        <f>SUMIFS(D5:D1048576, A5:A1048576, "&lt;&gt;0")</f>
+        <v>48.099999999976717</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="7">
+        <f>SUM(D6:D10)</f>
+        <v>8.9166666665696539</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1">
+        <v>43545.569444444445</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43545.670138888891</v>
+      </c>
+      <c r="D6" s="5">
+        <f>(C6-B6)*24</f>
+        <v>2.4166666666860692</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1">
+        <v>43545.670138888891</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43545.684027777781</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:D10" si="0">(C7-B7)*24</f>
+        <v>0.33333333337213844</v>
+      </c>
+      <c r="E7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1">
+        <v>43545.895833333336</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43546</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
+        <v>2.4999999999417923</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1">
+        <v>43546.027777777781</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43546.111111111109</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
+        <v>1.9999999998835847</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1">
+        <v>43551.361111111109</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43551.430555555555</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>1.6666666666860692</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="7">
+        <f>SUM(D12:D16)</f>
+        <v>3.1999999999534339</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1">
+        <v>43555.427083333336</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43555.4375</v>
+      </c>
+      <c r="D12" s="5">
+        <f>(C12-B12)*24</f>
+        <v>0.24999999994179234</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1">
+        <v>43555.479166666664</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43555.506944444445</v>
+      </c>
+      <c r="D13" s="5">
+        <f>(C13-B13)*24</f>
+        <v>0.66666666674427688</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1">
+        <v>43555.527777777781</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43555.571527777778</v>
+      </c>
+      <c r="D14" s="5">
+        <f>(C14-B14)*24</f>
+        <v>1.0499999999301508</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1">
+        <v>43555.571527777778</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43555.59097222222</v>
+      </c>
+      <c r="D15" s="5">
+        <f>(C15-B15)*24</f>
+        <v>0.46666666661622003</v>
+      </c>
+      <c r="E15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4">
-        <f>SUM(D5:D9)</f>
-        <v>0.37152777777373558</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="1">
-        <v>43545.569444444445</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43545.670138888891</v>
-      </c>
-      <c r="D5" s="2">
-        <f>C5-B5</f>
-        <v>0.10069444444525288</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1">
-        <v>43545.670138888891</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43545.684027777781</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" ref="D6:D15" si="0">C6-B6</f>
-        <v>1.3888888890505768E-2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1">
-        <v>43545.895833333336</v>
-      </c>
-      <c r="C7" s="1">
-        <v>43546</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>0.10416666666424135</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1">
-        <v>43546.027777777781</v>
-      </c>
-      <c r="C8" s="1">
-        <v>43546.111111111109</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>8.3333333328482695E-2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1">
-        <v>43551.361111111109</v>
-      </c>
-      <c r="C9" s="1">
-        <v>43551.430555555555</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>6.9444444445252884E-2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4">
-        <f>SUM(D11:D15)</f>
-        <v>0.13333333333139308</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1">
-        <v>43555.427083333336</v>
-      </c>
-      <c r="C11" s="1">
-        <v>43555.4375</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0416666664241347E-2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1">
-        <v>43555.479166666664</v>
-      </c>
-      <c r="C12" s="1">
-        <v>43555.506944444445</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>2.7777777781011537E-2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1">
-        <v>43555.527777777781</v>
-      </c>
-      <c r="C13" s="1">
-        <v>43555.571527777778</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>4.3749999997089617E-2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1">
-        <v>43555.571527777778</v>
-      </c>
-      <c r="C14" s="1">
-        <v>43555.59097222222</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>1.9444444442342501E-2</v>
-      </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1">
+        <v>43555.961805555555</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43555.993750000001</v>
+      </c>
+      <c r="D16" s="5">
+        <f>(C16-B16)*24</f>
+        <v>0.76666666672099382</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1">
-        <v>43555.961805555555</v>
-      </c>
-      <c r="C15" s="1">
-        <v>43555.993750000001</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1944444446708076E-2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="7">
+        <f>SUM(D18:D19)</f>
+        <v>0.25000000011641532</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1">
+        <v>43559.364583333336</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43559.371527777781</v>
+      </c>
+      <c r="D18" s="5">
+        <f>(C18-B18)*24</f>
+        <v>0.16666666668606922</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1">
+        <v>43559.401388888888</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43559.404861111114</v>
+      </c>
+      <c r="D19" s="5">
+        <f>(C19-B19)*24</f>
+        <v>8.3333333430346102E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="7">
+        <f>SUM(D21:D26)</f>
+        <v>11.683333333348855</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1">
+        <v>43573.59375</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43573.6875</v>
+      </c>
+      <c r="D21" s="5">
+        <f>(C21-B21)*24</f>
+        <v>2.25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1">
+        <v>43577.411805555559</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43577.50277777778</v>
+      </c>
+      <c r="D22" s="5">
+        <f>(C22-B22)*24</f>
+        <v>2.1833333332906477</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1">
+        <v>43577.537499999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43577.583333333336</v>
+      </c>
+      <c r="D23" s="5">
+        <f>(C23-B23)*24</f>
+        <v>1.1000000000931323</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1">
+        <v>43577.65902777778</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43577.6875</v>
+      </c>
+      <c r="D24" s="5">
+        <f>(C24-B24)*24</f>
+        <v>0.68333333329064772</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="1">
+        <v>43577.6875</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43577.791666666664</v>
+      </c>
+      <c r="D25" s="5">
+        <f>(C25-B25)*24</f>
+        <v>2.4999999999417923</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="B26" s="1">
+        <v>43578.647222222222</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43578.770833333336</v>
+      </c>
+      <c r="D26" s="5">
+        <f>(C26-B26)*24</f>
+        <v>2.9666666667326353</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/_inbox/OperationRecordOfSectionTreeCreation.xlsx
+++ b/_inbox/OperationRecordOfSectionTreeCreation.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>2019年度部署ツリーに合わせて部署を並べ替える。</t>
     <rPh sb="4" eb="6">
@@ -335,6 +335,55 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署ツリー反映に関する問い合わせ（４月報告が残っている状態で非表示部署変換マスタを入れ替えたが問題ないか）</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ヒヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>モンダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -344,7 +393,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -413,13 +462,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -736,9 +785,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -753,7 +805,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F2" t="str">
         <f>ROUNDDOWN(D4/8,0) &amp; "人日と" &amp; ROUNDUP((D4-ROUNDDOWN(D4,0))*60,0) &amp; "分消費"</f>
-        <v>6人日と6分消費</v>
+        <v>6人日と44分消費</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -778,7 +830,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="6">
         <f>SUMIFS(D5:D1048576, A5:A1048576, "&lt;&gt;0")</f>
-        <v>48.099999999976717</v>
+        <v>51.73333333292976</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -1031,7 +1083,7 @@
         <v>43573.6875</v>
       </c>
       <c r="D21" s="5">
-        <f>(C21-B21)*24</f>
+        <f t="shared" ref="D21:D26" si="1">(C21-B21)*24</f>
         <v>2.25</v>
       </c>
       <c r="E21" t="s">
@@ -1047,7 +1099,7 @@
         <v>43577.50277777778</v>
       </c>
       <c r="D22" s="5">
-        <f>(C22-B22)*24</f>
+        <f t="shared" si="1"/>
         <v>2.1833333332906477</v>
       </c>
       <c r="E22" t="s">
@@ -1063,7 +1115,7 @@
         <v>43577.583333333336</v>
       </c>
       <c r="D23" s="5">
-        <f>(C23-B23)*24</f>
+        <f t="shared" si="1"/>
         <v>1.1000000000931323</v>
       </c>
       <c r="E23" t="s">
@@ -1079,7 +1131,7 @@
         <v>43577.6875</v>
       </c>
       <c r="D24" s="5">
-        <f>(C24-B24)*24</f>
+        <f t="shared" si="1"/>
         <v>0.68333333329064772</v>
       </c>
       <c r="E24" t="s">
@@ -1095,7 +1147,7 @@
         <v>43577.791666666664</v>
       </c>
       <c r="D25" s="5">
-        <f>(C25-B25)*24</f>
+        <f t="shared" si="1"/>
         <v>2.4999999999417923</v>
       </c>
       <c r="E25" t="s">
@@ -1111,11 +1163,49 @@
         <v>43578.770833333336</v>
       </c>
       <c r="D26" s="5">
-        <f>(C26-B26)*24</f>
+        <f t="shared" si="1"/>
         <v>2.9666666667326353</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="7">
+        <f>SUM(D28:D29)</f>
+        <v>1.8166666664765216</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1">
+        <v>43592.451388888891</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43592.501388888886</v>
+      </c>
+      <c r="D28" s="5">
+        <f>(C28-B28)*24</f>
+        <v>1.1999999998952262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1">
+        <v>43592.576388888891</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43592.602083333331</v>
+      </c>
+      <c r="D29" s="5">
+        <f>(C29-B29)*24</f>
+        <v>0.61666666658129543</v>
       </c>
     </row>
   </sheetData>

--- a/_inbox/OperationRecordOfSectionTreeCreation.xlsx
+++ b/_inbox/OperationRecordOfSectionTreeCreation.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>2019年度部署ツリーに合わせて部署を並べ替える。</t>
     <rPh sb="4" eb="6">
@@ -384,6 +384,31 @@
     </rPh>
     <rPh sb="47" eb="49">
       <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署ツリー変更の問い合わせ（廃止部署を復活させたい）</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ハイシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フッカツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -785,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -804,8 +829,8 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F2" t="str">
-        <f>ROUNDDOWN(D4/8,0) &amp; "人日と" &amp; ROUNDUP((D4-ROUNDDOWN(D4,0))*60,0) &amp; "分消費"</f>
-        <v>6人日と44分消費</v>
+        <f>ROUNDUP(D4/8,1) &amp; "人日消費"</f>
+        <v>6.8人日消費</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -830,7 +855,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="6">
         <f>SUMIFS(D5:D1048576, A5:A1048576, "&lt;&gt;0")</f>
-        <v>51.73333333292976</v>
+        <v>53.666666666278616</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -1206,6 +1231,31 @@
       <c r="D29" s="5">
         <f>(C29-B29)*24</f>
         <v>0.61666666658129543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="7">
+        <f>SUM(D31)</f>
+        <v>0.96666666667442769</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1">
+        <v>43595.541666666664</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43595.581944444442</v>
+      </c>
+      <c r="D31" s="5">
+        <f>(C31-B31)*24</f>
+        <v>0.96666666667442769</v>
       </c>
     </row>
   </sheetData>

--- a/_inbox/OperationRecordOfSectionTreeCreation.xlsx
+++ b/_inbox/OperationRecordOfSectionTreeCreation.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>2019年度部署ツリーに合わせて部署を並べ替える。</t>
     <rPh sb="4" eb="6">
@@ -409,6 +409,22 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>フッカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署ツリー変更の問い合わせ（ＳＳＭＳ）</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -810,11 +826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="4" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -830,7 +846,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F2" t="str">
         <f>ROUNDUP(D4/8,1) &amp; "人日消費"</f>
-        <v>6.8人日消費</v>
+        <v>6.9人日消費</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -855,7 +871,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="6">
         <f>SUMIFS(D5:D1048576, A5:A1048576, "&lt;&gt;0")</f>
-        <v>53.666666666278616</v>
+        <v>55.033333332685288</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -1256,6 +1272,57 @@
       <c r="D31" s="5">
         <f>(C31-B31)*24</f>
         <v>0.96666666667442769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="7">
+        <f>SUM(D33)</f>
+        <v>9.9999999976716936E-2</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1">
+        <v>43599.368055555555</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43599.37222222222</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:D35" si="2">(C33-B33)*24</f>
+        <v>9.9999999976716936E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1">
+        <v>43599.464583333334</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43599.503472222219</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>0.93333333323244005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1">
+        <v>43599.511805555558</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43599.521527777775</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>0.23333333322079852</v>
       </c>
     </row>
   </sheetData>

--- a/_inbox/OperationRecordOfSectionTreeCreation.xlsx
+++ b/_inbox/OperationRecordOfSectionTreeCreation.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>2019年度部署ツリーに合わせて部署を並べ替える。</t>
     <rPh sb="4" eb="6">
@@ -413,7 +413,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>部署ツリー変更の問い合わせ（ＳＳＭＳ）</t>
+    <t>部署ツリー変更の問い合わせとメンテ（ＳＳＭＳ）</t>
     <rPh sb="0" eb="2">
       <t>ブショ</t>
     </rPh>
@@ -425,6 +425,81 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツリーのメンテSQL作成、テスト。</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予算データのメンテSQL作成、テスト。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールの添付ファイルがないため再送依頼。</t>
+    <rPh sb="4" eb="6">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サイソウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンテ画面から対応できるか確認。</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署ツリー変更の問い合わせ（調整計、ＯＳＳ決算ＳＧ～ＯＳＳ代表）</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケッサン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ダイヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -826,11 +901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -846,7 +921,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F2" t="str">
         <f>ROUNDUP(D4/8,1) &amp; "人日消費"</f>
-        <v>6.9人日消費</v>
+        <v>8.3人日消費</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -871,7 +946,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="6">
         <f>SUMIFS(D5:D1048576, A5:A1048576, "&lt;&gt;0")</f>
-        <v>55.033333332685288</v>
+        <v>65.833333332440816</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -1281,12 +1356,12 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="7">
-        <f>SUM(D33)</f>
-        <v>9.9999999976716936E-2</v>
+        <f>SUM(D33:D37)</f>
+        <v>4.8999999997322448</v>
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="1">
         <v>43599.368055555555</v>
@@ -1294,12 +1369,15 @@
       <c r="C33" s="1">
         <v>43599.37222222222</v>
       </c>
-      <c r="D33">
-        <f t="shared" ref="D33:D35" si="2">(C33-B33)*24</f>
+      <c r="D33" s="5">
+        <f t="shared" ref="D33:D39" si="2">(C33-B33)*24</f>
         <v>9.9999999976716936E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="1">
         <v>43599.464583333334</v>
@@ -1307,12 +1385,15 @@
       <c r="C34" s="1">
         <v>43599.503472222219</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="5">
         <f t="shared" si="2"/>
         <v>0.93333333323244005</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="1">
         <v>43599.511805555558</v>
@@ -1320,9 +1401,72 @@
       <c r="C35" s="1">
         <v>43599.521527777775</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="5">
         <f t="shared" si="2"/>
         <v>0.23333333322079852</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1">
+        <v>43600.34375</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43600.45208333333</v>
+      </c>
+      <c r="D36" s="5">
+        <f t="shared" si="2"/>
+        <v>2.5999999999185093</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1">
+        <v>43600.619444444441</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43600.662499999999</v>
+      </c>
+      <c r="D37" s="5">
+        <f t="shared" si="2"/>
+        <v>1.03333333338378</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="7">
+        <f>SUM(D39:D39)</f>
+        <v>1.1833333333488554</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1">
+        <v>43600.45208333333</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43600.501388888886</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1833333333488554</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/_inbox/OperationRecordOfSectionTreeCreation.xlsx
+++ b/_inbox/OperationRecordOfSectionTreeCreation.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>2019年度部署ツリーに合わせて部署を並べ替える。</t>
     <rPh sb="4" eb="6">
@@ -500,6 +500,38 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>ダイヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署ツリー変更の問い合わせとメンテ（ＯＳＳ経戦）</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イクサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツリーの資料修正。</t>
+    <rPh sb="4" eb="6">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -901,11 +933,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -921,7 +953,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F2" t="str">
         <f>ROUNDUP(D4/8,1) &amp; "人日消費"</f>
-        <v>8.3人日消費</v>
+        <v>4.4人日消費</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -945,8 +977,8 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6">
-        <f>SUMIFS(D5:D1048576, A5:A1048576, "&lt;&gt;0")</f>
-        <v>65.833333332440816</v>
+        <f>SUMIFS(D5:D1048576, A5:A1048576, "&lt;&gt;")</f>
+        <v>35.04999999969732</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -1467,6 +1499,50 @@
       </c>
       <c r="E39" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="7">
+        <f>SUM(D41:D42)</f>
+        <v>2.1333333334769122</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1">
+        <v>43600.673611111109</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43600.694444444445</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" ref="D41:D42" si="3">(C41-B41)*24</f>
+        <v>0.50000000005820766</v>
+      </c>
+      <c r="E41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1">
+        <v>43601.671527777777</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43601.739583333336</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="3"/>
+        <v>1.6333333334187046</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/_inbox/OperationRecordOfSectionTreeCreation.xlsx
+++ b/_inbox/OperationRecordOfSectionTreeCreation.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>2019年度部署ツリーに合わせて部署を並べ替える。</t>
     <rPh sb="4" eb="6">
@@ -532,6 +532,39 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データメンテに伴う調査。どのデータを作ればよいのか。</t>
+    <rPh sb="7" eb="8">
+      <t>トモナ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18年度実績が空。メンテして。（TC生産－UPSG）</t>
+    <rPh sb="2" eb="4">
+      <t>ネンド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セイサン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -933,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -953,7 +986,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F2" t="str">
         <f>ROUNDUP(D4/8,1) &amp; "人日消費"</f>
-        <v>4.4人日消費</v>
+        <v>4.7人日消費</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -978,7 +1011,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="6">
         <f>SUMIFS(D5:D1048576, A5:A1048576, "&lt;&gt;")</f>
-        <v>35.04999999969732</v>
+        <v>37.016666666138917</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -1543,6 +1576,50 @@
       </c>
       <c r="E42" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="7">
+        <f>SUM(D44:D45)</f>
+        <v>1.966666666441597</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1">
+        <v>43602.333333333336</v>
+      </c>
+      <c r="C44" s="1">
+        <v>43602.367361111108</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" ref="D44:D45" si="4">(C44-B44)*24</f>
+        <v>0.8166666665347293</v>
+      </c>
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1">
+        <v>43602.400000000001</v>
+      </c>
+      <c r="C45" s="1">
+        <v>43602.447916666664</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="4"/>
+        <v>1.1499999999068677</v>
+      </c>
+      <c r="E45" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/_inbox/OperationRecordOfSectionTreeCreation.xlsx
+++ b/_inbox/OperationRecordOfSectionTreeCreation.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="2019年度部署ツリー作成" sheetId="1" r:id="rId1"/>
+    <sheet name="作業実績報告書に計上する時間" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
   <si>
     <t>2019年度部署ツリーに合わせて部署を並べ替える。</t>
     <rPh sb="4" eb="6">
@@ -565,6 +566,138 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>セイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＳＳＭＳのライブ値がダブる</t>
+    <rPh sb="8" eb="9">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査</t>
+    <rPh sb="0" eb="2">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査、メンテ方法の返信。</t>
+    <rPh sb="0" eb="2">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンテ方法を再度送信。</t>
+    <rPh sb="3" eb="5">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取り込みデータの準備～メンテSQL作成～テスト。</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績計上日</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業日</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実作業時間</t>
+    <rPh sb="0" eb="1">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業実績への記載用</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計上時間（0.5単位）</t>
+    <rPh sb="0" eb="2">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タンイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -573,8 +706,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -627,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -650,6 +786,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -966,7 +1114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -976,20 +1124,24 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="F2" t="str">
         <f>ROUNDUP(D4/8,1) &amp; "人日消費"</f>
-        <v>4.7人日消費</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>5.2人日消費</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1002,8 +1154,17 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -1011,11 +1172,11 @@
       <c r="C4" s="4"/>
       <c r="D4" s="6">
         <f>SUMIFS(D5:D1048576, A5:A1048576, "&lt;&gt;")</f>
-        <v>37.016666666138917</v>
+        <v>41.349999999452848</v>
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1026,8 +1187,24 @@
         <v>8.9166666665696539</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J5" s="8" t="str">
+        <f>IF(B5="", "", DATE(YEAR(B5), MONTH(B5), DAY(B5)))</f>
+        <v/>
+      </c>
+      <c r="K5" s="8" t="str">
+        <f>IF(C5="", "", DATE(YEAR(C5), MONTH(C5), DAY(C5)))</f>
+        <v/>
+      </c>
+      <c r="L5" s="8" t="str">
+        <f>IF(J5=K5, J5, "？？？")</f>
+        <v/>
+      </c>
+      <c r="M5" s="10">
+        <f>IF(L5="", 0, D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="1">
         <v>43545.569444444445</v>
@@ -1042,8 +1219,24 @@
       <c r="E6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J6" s="8">
+        <f>IF(B6="", "", DATE(YEAR(B6), MONTH(B6), DAY(B6)))</f>
+        <v>43545</v>
+      </c>
+      <c r="K6" s="8">
+        <f>IF(C6="", "", DATE(YEAR(C6), MONTH(C6), DAY(C6)))</f>
+        <v>43545</v>
+      </c>
+      <c r="L6" s="8">
+        <f>IF(J6=K6, J6, "？？？")</f>
+        <v>43545</v>
+      </c>
+      <c r="M6" s="10">
+        <f t="shared" ref="M6:M52" si="0">IF(L6="", 0, D6)</f>
+        <v>2.4166666666860692</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>43545.670138888891</v>
@@ -1052,14 +1245,30 @@
         <v>43545.684027777781</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ref="D7:D10" si="0">(C7-B7)*24</f>
+        <f t="shared" ref="D7:D10" si="1">(C7-B7)*24</f>
         <v>0.33333333337213844</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J7" s="8">
+        <f t="shared" ref="J7:J52" si="2">IF(B7="", "", DATE(YEAR(B7), MONTH(B7), DAY(B7)))</f>
+        <v>43545</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" ref="K7:K52" si="3">IF(C7="", "", DATE(YEAR(C7), MONTH(C7), DAY(C7)))</f>
+        <v>43545</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" ref="L7:L52" si="4">IF(J7=K7, J7, "？？？")</f>
+        <v>43545</v>
+      </c>
+      <c r="M7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.33333333337213844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="1">
         <v>43545.895833333336</v>
@@ -1068,14 +1277,29 @@
         <v>43546</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4999999999417923</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J8" s="8">
+        <f t="shared" si="2"/>
+        <v>43545</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="3"/>
+        <v>43546</v>
+      </c>
+      <c r="L8" s="8">
+        <v>43545</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="shared" si="0"/>
+        <v>2.4999999999417923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>43546.027777777781</v>
@@ -1084,14 +1308,30 @@
         <v>43546.111111111109</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9999999998835847</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J9" s="8">
+        <f t="shared" si="2"/>
+        <v>43546</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="3"/>
+        <v>43546</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="4"/>
+        <v>43546</v>
+      </c>
+      <c r="M9" s="10">
+        <f t="shared" si="0"/>
+        <v>1.9999999998835847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="1">
         <v>43551.361111111109</v>
@@ -1100,14 +1340,30 @@
         <v>43551.430555555555</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6666666666860692</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J10" s="8">
+        <f t="shared" si="2"/>
+        <v>43551</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="3"/>
+        <v>43551</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="4"/>
+        <v>43551</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6666666666860692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1118,8 +1374,24 @@
         <v>3.1999999999534339</v>
       </c>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J11" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L11" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="1">
         <v>43555.427083333336</v>
@@ -1134,8 +1406,24 @@
       <c r="E12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J12" s="8">
+        <f t="shared" si="2"/>
+        <v>43555</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="3"/>
+        <v>43555</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="4"/>
+        <v>43555</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.24999999994179234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="1">
         <v>43555.479166666664</v>
@@ -1150,8 +1438,24 @@
       <c r="E13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J13" s="8">
+        <f t="shared" si="2"/>
+        <v>43555</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="3"/>
+        <v>43555</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="4"/>
+        <v>43555</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.66666666674427688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="1">
         <v>43555.527777777781</v>
@@ -1166,8 +1470,24 @@
       <c r="E14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J14" s="8">
+        <f t="shared" si="2"/>
+        <v>43555</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="3"/>
+        <v>43555</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="4"/>
+        <v>43555</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="0"/>
+        <v>1.0499999999301508</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <v>43555.571527777778</v>
@@ -1182,8 +1502,24 @@
       <c r="E15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="J15" s="8">
+        <f t="shared" si="2"/>
+        <v>43555</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="3"/>
+        <v>43555</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="4"/>
+        <v>43555</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="0"/>
+        <v>0.46666666661622003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="1">
         <v>43555.961805555555</v>
@@ -1198,8 +1534,24 @@
       <c r="E16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J16" s="8">
+        <f t="shared" si="2"/>
+        <v>43555</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="3"/>
+        <v>43555</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="4"/>
+        <v>43555</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="0"/>
+        <v>0.76666666672099382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1210,8 +1562,24 @@
         <v>0.25000000011641532</v>
       </c>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J17" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K17" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L17" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="1">
         <v>43559.364583333336</v>
@@ -1226,8 +1594,24 @@
       <c r="E18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J18" s="8">
+        <f t="shared" si="2"/>
+        <v>43559</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="3"/>
+        <v>43559</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="4"/>
+        <v>43559</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="0"/>
+        <v>0.16666666668606922</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="1">
         <v>43559.401388888888</v>
@@ -1242,8 +1626,24 @@
       <c r="E19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J19" s="8">
+        <f t="shared" si="2"/>
+        <v>43559</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="3"/>
+        <v>43559</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="4"/>
+        <v>43559</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="0"/>
+        <v>8.3333333430346102E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1254,8 +1654,24 @@
         <v>11.683333333348855</v>
       </c>
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J20" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K20" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L20" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="1">
         <v>43573.59375</v>
@@ -1264,14 +1680,30 @@
         <v>43573.6875</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" ref="D21:D26" si="1">(C21-B21)*24</f>
+        <f t="shared" ref="D21:D26" si="5">(C21-B21)*24</f>
         <v>2.25</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J21" s="8">
+        <f t="shared" si="2"/>
+        <v>43573</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="3"/>
+        <v>43573</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="4"/>
+        <v>43573</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="1">
         <v>43577.411805555559</v>
@@ -1280,14 +1712,30 @@
         <v>43577.50277777778</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.1833333332906477</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J22" s="8">
+        <f t="shared" si="2"/>
+        <v>43577</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="3"/>
+        <v>43577</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="4"/>
+        <v>43577</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="0"/>
+        <v>2.1833333332906477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="1">
         <v>43577.537499999999</v>
@@ -1296,14 +1744,30 @@
         <v>43577.583333333336</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1000000000931323</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J23" s="8">
+        <f t="shared" si="2"/>
+        <v>43577</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="3"/>
+        <v>43577</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="4"/>
+        <v>43577</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1000000000931323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="1">
         <v>43577.65902777778</v>
@@ -1312,14 +1776,30 @@
         <v>43577.6875</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.68333333329064772</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J24" s="8">
+        <f t="shared" si="2"/>
+        <v>43577</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" si="3"/>
+        <v>43577</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="4"/>
+        <v>43577</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="0"/>
+        <v>0.68333333329064772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="1">
         <v>43577.6875</v>
@@ -1328,14 +1808,30 @@
         <v>43577.791666666664</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.4999999999417923</v>
       </c>
       <c r="E25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J25" s="8">
+        <f t="shared" si="2"/>
+        <v>43577</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="3"/>
+        <v>43577</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="4"/>
+        <v>43577</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="0"/>
+        <v>2.4999999999417923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="1">
         <v>43578.647222222222</v>
@@ -1344,14 +1840,30 @@
         <v>43578.770833333336</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.9666666667326353</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J26" s="8">
+        <f t="shared" si="2"/>
+        <v>43578</v>
+      </c>
+      <c r="K26" s="8">
+        <f t="shared" si="3"/>
+        <v>43578</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="4"/>
+        <v>43578</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="0"/>
+        <v>2.9666666667326353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -1362,8 +1874,24 @@
         <v>1.8166666664765216</v>
       </c>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J27" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K27" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L27" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="1">
         <v>43592.451388888891</v>
@@ -1375,8 +1903,24 @@
         <f>(C28-B28)*24</f>
         <v>1.1999999998952262</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J28" s="8">
+        <f t="shared" si="2"/>
+        <v>43592</v>
+      </c>
+      <c r="K28" s="8">
+        <f t="shared" si="3"/>
+        <v>43592</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="4"/>
+        <v>43592</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1999999998952262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="1">
         <v>43592.576388888891</v>
@@ -1388,8 +1932,24 @@
         <f>(C29-B29)*24</f>
         <v>0.61666666658129543</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J29" s="8">
+        <f t="shared" si="2"/>
+        <v>43592</v>
+      </c>
+      <c r="K29" s="8">
+        <f t="shared" si="3"/>
+        <v>43592</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="4"/>
+        <v>43592</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="0"/>
+        <v>0.61666666658129543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -1400,8 +1960,24 @@
         <v>0.96666666667442769</v>
       </c>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J30" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K30" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L30" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="1">
         <v>43595.541666666664</v>
@@ -1413,8 +1989,24 @@
         <f>(C31-B31)*24</f>
         <v>0.96666666667442769</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J31" s="8">
+        <f t="shared" si="2"/>
+        <v>43595</v>
+      </c>
+      <c r="K31" s="8">
+        <f t="shared" si="3"/>
+        <v>43595</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="4"/>
+        <v>43595</v>
+      </c>
+      <c r="M31" s="10">
+        <f t="shared" si="0"/>
+        <v>0.96666666667442769</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +2017,24 @@
         <v>4.8999999997322448</v>
       </c>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J32" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K32" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L32" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
       <c r="B33" s="1">
         <v>43599.368055555555</v>
@@ -1435,14 +2043,30 @@
         <v>43599.37222222222</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" ref="D33:D39" si="2">(C33-B33)*24</f>
+        <f t="shared" ref="D33:D39" si="6">(C33-B33)*24</f>
         <v>9.9999999976716936E-2</v>
       </c>
       <c r="E33" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J33" s="8">
+        <f t="shared" si="2"/>
+        <v>43599</v>
+      </c>
+      <c r="K33" s="8">
+        <f t="shared" si="3"/>
+        <v>43599</v>
+      </c>
+      <c r="L33" s="8">
+        <f t="shared" si="4"/>
+        <v>43599</v>
+      </c>
+      <c r="M33" s="10">
+        <f t="shared" si="0"/>
+        <v>9.9999999976716936E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="1">
         <v>43599.464583333334</v>
@@ -1451,14 +2075,30 @@
         <v>43599.503472222219</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.93333333323244005</v>
       </c>
       <c r="E34" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J34" s="8">
+        <f t="shared" si="2"/>
+        <v>43599</v>
+      </c>
+      <c r="K34" s="8">
+        <f t="shared" si="3"/>
+        <v>43599</v>
+      </c>
+      <c r="L34" s="8">
+        <f t="shared" si="4"/>
+        <v>43599</v>
+      </c>
+      <c r="M34" s="10">
+        <f t="shared" si="0"/>
+        <v>0.93333333323244005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="1">
         <v>43599.511805555558</v>
@@ -1467,14 +2107,30 @@
         <v>43599.521527777775</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.23333333322079852</v>
       </c>
       <c r="E35" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J35" s="8">
+        <f t="shared" si="2"/>
+        <v>43599</v>
+      </c>
+      <c r="K35" s="8">
+        <f t="shared" si="3"/>
+        <v>43599</v>
+      </c>
+      <c r="L35" s="8">
+        <f t="shared" si="4"/>
+        <v>43599</v>
+      </c>
+      <c r="M35" s="10">
+        <f t="shared" si="0"/>
+        <v>0.23333333322079852</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="1">
         <v>43600.34375</v>
@@ -1483,14 +2139,30 @@
         <v>43600.45208333333</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2.5999999999185093</v>
       </c>
       <c r="E36" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J36" s="8">
+        <f t="shared" si="2"/>
+        <v>43600</v>
+      </c>
+      <c r="K36" s="8">
+        <f t="shared" si="3"/>
+        <v>43600</v>
+      </c>
+      <c r="L36" s="8">
+        <f t="shared" si="4"/>
+        <v>43600</v>
+      </c>
+      <c r="M36" s="10">
+        <f t="shared" si="0"/>
+        <v>2.5999999999185093</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="1">
         <v>43600.619444444441</v>
@@ -1499,14 +2171,30 @@
         <v>43600.662499999999</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.03333333338378</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J37" s="8">
+        <f t="shared" si="2"/>
+        <v>43600</v>
+      </c>
+      <c r="K37" s="8">
+        <f t="shared" si="3"/>
+        <v>43600</v>
+      </c>
+      <c r="L37" s="8">
+        <f t="shared" si="4"/>
+        <v>43600</v>
+      </c>
+      <c r="M37" s="10">
+        <f t="shared" si="0"/>
+        <v>1.03333333338378</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>30</v>
       </c>
@@ -1517,8 +2205,24 @@
         <v>1.1833333333488554</v>
       </c>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J38" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K38" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L38" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="1">
         <v>43600.45208333333</v>
@@ -1527,14 +2231,30 @@
         <v>43600.501388888886</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.1833333333488554</v>
       </c>
       <c r="E39" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J39" s="8">
+        <f t="shared" si="2"/>
+        <v>43600</v>
+      </c>
+      <c r="K39" s="8">
+        <f t="shared" si="3"/>
+        <v>43600</v>
+      </c>
+      <c r="L39" s="8">
+        <f t="shared" si="4"/>
+        <v>43600</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1833333333488554</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>31</v>
       </c>
@@ -1545,8 +2265,24 @@
         <v>2.1333333334769122</v>
       </c>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J40" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K40" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L40" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M40" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="1">
         <v>43600.673611111109</v>
@@ -1555,14 +2291,30 @@
         <v>43600.694444444445</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" ref="D41:D42" si="3">(C41-B41)*24</f>
+        <f t="shared" ref="D41:D42" si="7">(C41-B41)*24</f>
         <v>0.50000000005820766</v>
       </c>
       <c r="E41" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J41" s="8">
+        <f t="shared" si="2"/>
+        <v>43600</v>
+      </c>
+      <c r="K41" s="8">
+        <f t="shared" si="3"/>
+        <v>43600</v>
+      </c>
+      <c r="L41" s="8">
+        <f t="shared" si="4"/>
+        <v>43600</v>
+      </c>
+      <c r="M41" s="10">
+        <f t="shared" si="0"/>
+        <v>0.50000000005820766</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="1">
         <v>43601.671527777777</v>
@@ -1571,26 +2323,58 @@
         <v>43601.739583333336</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.6333333334187046</v>
       </c>
       <c r="E42" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J42" s="8">
+        <f t="shared" si="2"/>
+        <v>43601</v>
+      </c>
+      <c r="K42" s="8">
+        <f t="shared" si="3"/>
+        <v>43601</v>
+      </c>
+      <c r="L42" s="8">
+        <f t="shared" si="4"/>
+        <v>43601</v>
+      </c>
+      <c r="M42" s="10">
+        <f t="shared" si="0"/>
+        <v>1.6333333334187046</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="7">
-        <f>SUM(D44:D45)</f>
-        <v>1.966666666441597</v>
+        <f>SUM(D44:D48)</f>
+        <v>4.6333333330694586</v>
       </c>
       <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J43" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K43" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L43" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M43" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="1">
         <v>43602.333333333336</v>
@@ -1599,14 +2383,30 @@
         <v>43602.367361111108</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" ref="D44:D45" si="4">(C44-B44)*24</f>
+        <f t="shared" ref="D44:D45" si="8">(C44-B44)*24</f>
         <v>0.8166666665347293</v>
       </c>
       <c r="E44" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="J44" s="8">
+        <f t="shared" si="2"/>
+        <v>43602</v>
+      </c>
+      <c r="K44" s="8">
+        <f t="shared" si="3"/>
+        <v>43602</v>
+      </c>
+      <c r="L44" s="8">
+        <f t="shared" si="4"/>
+        <v>43602</v>
+      </c>
+      <c r="M44" s="10">
+        <f t="shared" si="0"/>
+        <v>0.8166666665347293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="1">
         <v>43602.400000000001</v>
@@ -1615,11 +2415,247 @@
         <v>43602.447916666664</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1499999999068677</v>
       </c>
       <c r="E45" t="s">
         <v>34</v>
+      </c>
+      <c r="J45" s="8">
+        <f t="shared" si="2"/>
+        <v>43602</v>
+      </c>
+      <c r="K45" s="8">
+        <f t="shared" si="3"/>
+        <v>43602</v>
+      </c>
+      <c r="L45" s="8">
+        <f t="shared" si="4"/>
+        <v>43602</v>
+      </c>
+      <c r="M45" s="10">
+        <f t="shared" si="0"/>
+        <v>1.1499999999068677</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1">
+        <v>43606.504166666666</v>
+      </c>
+      <c r="C46" s="1">
+        <v>43606.53125</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" ref="D46:D48" si="9">(C46-B46)*24</f>
+        <v>0.65000000002328306</v>
+      </c>
+      <c r="E46" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46" s="8">
+        <f t="shared" si="2"/>
+        <v>43606</v>
+      </c>
+      <c r="K46" s="8">
+        <f t="shared" si="3"/>
+        <v>43606</v>
+      </c>
+      <c r="L46" s="8">
+        <f t="shared" si="4"/>
+        <v>43606</v>
+      </c>
+      <c r="M46" s="10">
+        <f t="shared" si="0"/>
+        <v>0.65000000002328306</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1">
+        <v>43606.53402777778</v>
+      </c>
+      <c r="C47" s="1">
+        <v>43606.540277777778</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="9"/>
+        <v>0.1499999999650754</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="8">
+        <f t="shared" si="2"/>
+        <v>43606</v>
+      </c>
+      <c r="K47" s="8">
+        <f t="shared" si="3"/>
+        <v>43606</v>
+      </c>
+      <c r="L47" s="8">
+        <f t="shared" si="4"/>
+        <v>43606</v>
+      </c>
+      <c r="M47" s="10">
+        <f t="shared" si="0"/>
+        <v>0.1499999999650754</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1">
+        <v>43606.574305555558</v>
+      </c>
+      <c r="C48" s="1">
+        <v>43606.652083333334</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="9"/>
+        <v>1.8666666666395031</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" s="8">
+        <f t="shared" si="2"/>
+        <v>43606</v>
+      </c>
+      <c r="K48" s="8">
+        <f t="shared" si="3"/>
+        <v>43606</v>
+      </c>
+      <c r="L48" s="8">
+        <f t="shared" si="4"/>
+        <v>43606</v>
+      </c>
+      <c r="M48" s="10">
+        <f t="shared" si="0"/>
+        <v>1.8666666666395031</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="7">
+        <f>SUM(D50:D52)</f>
+        <v>1.6666666666860692</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="J49" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K49" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="L49" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M49" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1">
+        <v>43605.486805555556</v>
+      </c>
+      <c r="C50" s="1">
+        <v>43605.501388888886</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" ref="D50:D52" si="10">(C50-B50)*24</f>
+        <v>0.34999999991850927</v>
+      </c>
+      <c r="E50" t="s">
+        <v>37</v>
+      </c>
+      <c r="J50" s="8">
+        <f t="shared" si="2"/>
+        <v>43605</v>
+      </c>
+      <c r="K50" s="8">
+        <f t="shared" si="3"/>
+        <v>43605</v>
+      </c>
+      <c r="L50" s="8">
+        <f t="shared" si="4"/>
+        <v>43605</v>
+      </c>
+      <c r="M50" s="10">
+        <f t="shared" si="0"/>
+        <v>0.34999999991850927</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1">
+        <v>43605.510416666664</v>
+      </c>
+      <c r="C51" s="1">
+        <v>43605.544444444444</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="10"/>
+        <v>0.81666666670935228</v>
+      </c>
+      <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="J51" s="8">
+        <f t="shared" si="2"/>
+        <v>43605</v>
+      </c>
+      <c r="K51" s="8">
+        <f t="shared" si="3"/>
+        <v>43605</v>
+      </c>
+      <c r="L51" s="8">
+        <f t="shared" si="4"/>
+        <v>43605</v>
+      </c>
+      <c r="M51" s="10">
+        <f t="shared" si="0"/>
+        <v>0.81666666670935228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1">
+        <v>43605.703472222223</v>
+      </c>
+      <c r="C52" s="1">
+        <v>43605.724305555559</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="10"/>
+        <v>0.50000000005820766</v>
+      </c>
+      <c r="E52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" s="8">
+        <f t="shared" si="2"/>
+        <v>43605</v>
+      </c>
+      <c r="K52" s="8">
+        <f t="shared" si="3"/>
+        <v>43605</v>
+      </c>
+      <c r="L52" s="8">
+        <f t="shared" si="4"/>
+        <v>43605</v>
+      </c>
+      <c r="M52" s="10">
+        <f t="shared" si="0"/>
+        <v>0.50000000005820766</v>
       </c>
     </row>
   </sheetData>
@@ -1627,4 +2663,830 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" s="9">
+        <v>43556</v>
+      </c>
+      <c r="B2" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <f t="shared" ref="C2:C4" si="0">ROUNDUP(B2/0.5, 0)*0.5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="9">
+        <v>43557</v>
+      </c>
+      <c r="B3" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A3)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="9">
+        <v>43558</v>
+      </c>
+      <c r="B4" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A4)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="9">
+        <v>43559</v>
+      </c>
+      <c r="B5" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A5)</f>
+        <v>0.25000000011641532</v>
+      </c>
+      <c r="C5" s="11">
+        <f>ROUNDUP(B5/0.5, 0)*0.5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="9">
+        <v>43560</v>
+      </c>
+      <c r="B6" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A6)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <f t="shared" ref="C6:C62" si="1">ROUNDUP(B6/0.5, 0)*0.5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="9">
+        <v>43561</v>
+      </c>
+      <c r="B7" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A7)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="9">
+        <v>43562</v>
+      </c>
+      <c r="B8" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A8)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="9">
+        <v>43563</v>
+      </c>
+      <c r="B9" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A9)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="9">
+        <v>43564</v>
+      </c>
+      <c r="B10" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A10)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="9">
+        <v>43565</v>
+      </c>
+      <c r="B11" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A11)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="9">
+        <v>43566</v>
+      </c>
+      <c r="B12" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A12)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="9">
+        <v>43567</v>
+      </c>
+      <c r="B13" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A13)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="9">
+        <v>43568</v>
+      </c>
+      <c r="B14" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A14)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="9">
+        <v>43569</v>
+      </c>
+      <c r="B15" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A15)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="9">
+        <v>43570</v>
+      </c>
+      <c r="B16" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A16)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="9">
+        <v>43571</v>
+      </c>
+      <c r="B17" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A17)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="9">
+        <v>43572</v>
+      </c>
+      <c r="B18" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A18)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="9">
+        <v>43573</v>
+      </c>
+      <c r="B19" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A19)</f>
+        <v>2.25</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="9">
+        <v>43574</v>
+      </c>
+      <c r="B20" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A20)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="9">
+        <v>43575</v>
+      </c>
+      <c r="B21" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A21)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="9">
+        <v>43576</v>
+      </c>
+      <c r="B22" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A22)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="9">
+        <v>43577</v>
+      </c>
+      <c r="B23" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A23)</f>
+        <v>6.46666666661622</v>
+      </c>
+      <c r="C23" s="11">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24" s="9">
+        <v>43578</v>
+      </c>
+      <c r="B24" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A24)</f>
+        <v>2.9666666667326353</v>
+      </c>
+      <c r="C24" s="11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25" s="9">
+        <v>43579</v>
+      </c>
+      <c r="B25" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A25)</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="9">
+        <v>43580</v>
+      </c>
+      <c r="B26" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A26)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="9">
+        <v>43581</v>
+      </c>
+      <c r="B27" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A27)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="9">
+        <v>43582</v>
+      </c>
+      <c r="B28" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A28)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="9">
+        <v>43583</v>
+      </c>
+      <c r="B29" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A29)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="9">
+        <v>43584</v>
+      </c>
+      <c r="B30" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A30)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="9">
+        <v>43585</v>
+      </c>
+      <c r="B31" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A31)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="9">
+        <v>43586</v>
+      </c>
+      <c r="B32" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A32)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="9">
+        <v>43587</v>
+      </c>
+      <c r="B33" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A33)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="9">
+        <v>43588</v>
+      </c>
+      <c r="B34" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A34)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="9">
+        <v>43589</v>
+      </c>
+      <c r="B35" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A35)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="9">
+        <v>43590</v>
+      </c>
+      <c r="B36" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A36)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="9">
+        <v>43591</v>
+      </c>
+      <c r="B37" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A37)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="9">
+        <v>43592</v>
+      </c>
+      <c r="B38" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A38)</f>
+        <v>1.8166666664765216</v>
+      </c>
+      <c r="C38" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39" s="9">
+        <v>43593</v>
+      </c>
+      <c r="B39" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A39)</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="9">
+        <v>43594</v>
+      </c>
+      <c r="B40" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A40)</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="9">
+        <v>43595</v>
+      </c>
+      <c r="B41" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A41)</f>
+        <v>0.96666666667442769</v>
+      </c>
+      <c r="C41" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="9">
+        <v>43596</v>
+      </c>
+      <c r="B42" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A42)</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="9">
+        <v>43597</v>
+      </c>
+      <c r="B43" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A43)</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="9">
+        <v>43598</v>
+      </c>
+      <c r="B44" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A44)</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="9">
+        <v>43599</v>
+      </c>
+      <c r="B45" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A45)</f>
+        <v>1.2666666664299555</v>
+      </c>
+      <c r="C45" s="11">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="9">
+        <v>43600</v>
+      </c>
+      <c r="B46" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A46)</f>
+        <v>5.3166666667093523</v>
+      </c>
+      <c r="C46" s="11">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="9">
+        <v>43601</v>
+      </c>
+      <c r="B47" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A47)</f>
+        <v>1.6333333334187046</v>
+      </c>
+      <c r="C47" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="9">
+        <v>43602</v>
+      </c>
+      <c r="B48" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A48)</f>
+        <v>1.966666666441597</v>
+      </c>
+      <c r="C48" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="9">
+        <v>43603</v>
+      </c>
+      <c r="B49" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A49)</f>
+        <v>0</v>
+      </c>
+      <c r="C49" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="9">
+        <v>43604</v>
+      </c>
+      <c r="B50" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A50)</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="9">
+        <v>43605</v>
+      </c>
+      <c r="B51" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A51)</f>
+        <v>1.6666666666860692</v>
+      </c>
+      <c r="C51" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" s="9">
+        <v>43606</v>
+      </c>
+      <c r="B52" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A52)</f>
+        <v>2.6666666666278616</v>
+      </c>
+      <c r="C52" s="11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" s="9">
+        <v>43607</v>
+      </c>
+      <c r="B53" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A53)</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" s="9">
+        <v>43608</v>
+      </c>
+      <c r="B54" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A54)</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" s="9">
+        <v>43609</v>
+      </c>
+      <c r="B55" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A55)</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" s="9">
+        <v>43610</v>
+      </c>
+      <c r="B56" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A56)</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" s="9">
+        <v>43611</v>
+      </c>
+      <c r="B57" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A57)</f>
+        <v>0</v>
+      </c>
+      <c r="C57" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" s="9">
+        <v>43612</v>
+      </c>
+      <c r="B58" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A58)</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" s="9">
+        <v>43613</v>
+      </c>
+      <c r="B59" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A59)</f>
+        <v>0</v>
+      </c>
+      <c r="C59" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" s="9">
+        <v>43614</v>
+      </c>
+      <c r="B60" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A60)</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61" s="9">
+        <v>43615</v>
+      </c>
+      <c r="B61" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A61)</f>
+        <v>0</v>
+      </c>
+      <c r="C61" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62" s="9">
+        <v>43616</v>
+      </c>
+      <c r="B62" s="10">
+        <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A62)</f>
+        <v>0</v>
+      </c>
+      <c r="C62" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_inbox/OperationRecordOfSectionTreeCreation.xlsx
+++ b/_inbox/OperationRecordOfSectionTreeCreation.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>2019年度部署ツリーに合わせて部署を並べ替える。</t>
     <rPh sb="4" eb="6">
@@ -698,6 +698,36 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積もり作業（バージョンアップ＆会社コード）</t>
+    <rPh sb="0" eb="2">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部署ツリー関係なし。</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間外で2h</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンガイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -708,9 +738,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -729,7 +759,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -748,6 +778,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -763,7 +799,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,16 +824,19 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1114,11 +1153,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1135,7 +1174,7 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="F2" t="str">
         <f>ROUNDUP(D4/8,1) &amp; "人日消費"</f>
-        <v>5.2人日消費</v>
+        <v>6.9人日消費</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
@@ -1172,7 +1211,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="6">
         <f>SUMIFS(D5:D1048576, A5:A1048576, "&lt;&gt;")</f>
-        <v>41.349999999452848</v>
+        <v>54.616666665882803</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -1291,7 +1330,7 @@
         <f t="shared" si="3"/>
         <v>43546</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="12">
         <v>43545</v>
       </c>
       <c r="M8" s="10">
@@ -2571,7 +2610,7 @@
         <v>43605.501388888886</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" ref="D50:D52" si="10">(C50-B50)*24</f>
+        <f t="shared" ref="D50:D62" si="10">(C50-B50)*24</f>
         <v>0.34999999991850927</v>
       </c>
       <c r="E50" t="s">
@@ -2656,6 +2695,278 @@
       <c r="M52" s="10">
         <f t="shared" si="0"/>
         <v>0.50000000005820766</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="7">
+        <f>SUM(D54:D62)</f>
+        <v>13.266666666429956</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1">
+        <v>43609.958333333336</v>
+      </c>
+      <c r="C54" s="1">
+        <v>43610</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="10"/>
+        <v>0.99999999994179234</v>
+      </c>
+      <c r="J54" s="8">
+        <f t="shared" ref="J54:J62" si="11">IF(B54="", "", DATE(YEAR(B54), MONTH(B54), DAY(B54)))</f>
+        <v>43609</v>
+      </c>
+      <c r="K54" s="8">
+        <f t="shared" ref="K54:K62" si="12">IF(C54="", "", DATE(YEAR(C54), MONTH(C54), DAY(C54)))</f>
+        <v>43610</v>
+      </c>
+      <c r="L54" s="12">
+        <v>43612</v>
+      </c>
+      <c r="M54" s="10">
+        <f t="shared" ref="M54:M62" si="13">IF(L54="", 0, D54)</f>
+        <v>0.99999999994179234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1">
+        <v>43610</v>
+      </c>
+      <c r="C55" s="1">
+        <v>43610.041666666664</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="10"/>
+        <v>0.99999999994179234</v>
+      </c>
+      <c r="J55" s="8">
+        <f t="shared" si="11"/>
+        <v>43610</v>
+      </c>
+      <c r="K55" s="8">
+        <f t="shared" si="12"/>
+        <v>43610</v>
+      </c>
+      <c r="L55" s="12">
+        <v>43612</v>
+      </c>
+      <c r="M55" s="10">
+        <f t="shared" si="13"/>
+        <v>0.99999999994179234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1">
+        <v>43612.459722222222</v>
+      </c>
+      <c r="C56" s="1">
+        <v>43612.502083333333</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="10"/>
+        <v>1.0166666666627862</v>
+      </c>
+      <c r="J56" s="8">
+        <f t="shared" si="11"/>
+        <v>43612</v>
+      </c>
+      <c r="K56" s="8">
+        <f t="shared" si="12"/>
+        <v>43612</v>
+      </c>
+      <c r="L56" s="8">
+        <f t="shared" ref="L54:L62" si="14">IF(J56=K56, J56, "？？？")</f>
+        <v>43612</v>
+      </c>
+      <c r="M56" s="10">
+        <f t="shared" si="13"/>
+        <v>1.0166666666627862</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1">
+        <v>43612.511805555558</v>
+      </c>
+      <c r="C57" s="1">
+        <v>43612.543055555558</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="J57" s="8">
+        <f t="shared" si="11"/>
+        <v>43612</v>
+      </c>
+      <c r="K57" s="8">
+        <f t="shared" si="12"/>
+        <v>43612</v>
+      </c>
+      <c r="L57" s="8">
+        <f t="shared" si="14"/>
+        <v>43612</v>
+      </c>
+      <c r="M57" s="10">
+        <f t="shared" si="13"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1">
+        <v>43612.607638888891</v>
+      </c>
+      <c r="C58" s="1">
+        <v>43612.620138888888</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="10"/>
+        <v>0.29999999993015081</v>
+      </c>
+      <c r="J58" s="8">
+        <f t="shared" si="11"/>
+        <v>43612</v>
+      </c>
+      <c r="K58" s="8">
+        <f t="shared" si="12"/>
+        <v>43612</v>
+      </c>
+      <c r="L58" s="8">
+        <f t="shared" si="14"/>
+        <v>43612</v>
+      </c>
+      <c r="M58" s="10">
+        <f t="shared" si="13"/>
+        <v>0.29999999993015081</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1">
+        <v>43612.631249999999</v>
+      </c>
+      <c r="C59" s="1">
+        <v>43612.666666666664</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="10"/>
+        <v>0.84999999997671694</v>
+      </c>
+      <c r="J59" s="8">
+        <f t="shared" si="11"/>
+        <v>43612</v>
+      </c>
+      <c r="K59" s="8">
+        <f t="shared" si="12"/>
+        <v>43612</v>
+      </c>
+      <c r="L59" s="8">
+        <f t="shared" si="14"/>
+        <v>43612</v>
+      </c>
+      <c r="M59" s="10">
+        <f t="shared" si="13"/>
+        <v>0.84999999997671694</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A60" s="2"/>
+      <c r="B60" s="1">
+        <v>43613.1875</v>
+      </c>
+      <c r="C60" s="1">
+        <v>43613.270833333336</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="10"/>
+        <v>2.0000000000582077</v>
+      </c>
+      <c r="J60" s="8">
+        <f t="shared" si="11"/>
+        <v>43613</v>
+      </c>
+      <c r="K60" s="8">
+        <f t="shared" si="12"/>
+        <v>43613</v>
+      </c>
+      <c r="L60" s="12">
+        <v>43612</v>
+      </c>
+      <c r="M60" s="10">
+        <f t="shared" si="13"/>
+        <v>2.0000000000582077</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" s="2"/>
+      <c r="B61" s="1">
+        <v>43613.458333333336</v>
+      </c>
+      <c r="C61" s="1">
+        <v>43613.504166666666</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="10"/>
+        <v>1.0999999999185093</v>
+      </c>
+      <c r="J61" s="8">
+        <f t="shared" si="11"/>
+        <v>43613</v>
+      </c>
+      <c r="K61" s="8">
+        <f t="shared" si="12"/>
+        <v>43613</v>
+      </c>
+      <c r="L61" s="8">
+        <f t="shared" si="14"/>
+        <v>43613</v>
+      </c>
+      <c r="M61" s="10">
+        <f t="shared" si="13"/>
+        <v>1.0999999999185093</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" s="2"/>
+      <c r="B62" s="1">
+        <v>43613.535416666666</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43613.754166666666</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" si="10"/>
+        <v>5.25</v>
+      </c>
+      <c r="J62" s="8">
+        <f t="shared" si="11"/>
+        <v>43613</v>
+      </c>
+      <c r="K62" s="8">
+        <f t="shared" si="12"/>
+        <v>43613</v>
+      </c>
+      <c r="L62" s="8">
+        <f t="shared" si="14"/>
+        <v>43613</v>
+      </c>
+      <c r="M62" s="10">
+        <f t="shared" si="13"/>
+        <v>5.25</v>
       </c>
     </row>
   </sheetData>
@@ -2667,11 +2978,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3303,7 +3614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="9">
         <v>43603</v>
       </c>
@@ -3316,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="9">
         <v>43604</v>
       </c>
@@ -3329,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="9">
         <v>43605</v>
       </c>
@@ -3342,7 +3653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="9">
         <v>43606</v>
       </c>
@@ -3355,7 +3666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="9">
         <v>43607</v>
       </c>
@@ -3368,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="9">
         <v>43608</v>
       </c>
@@ -3381,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="9">
         <v>43609</v>
       </c>
@@ -3394,7 +3705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="9">
         <v>43610</v>
       </c>
@@ -3407,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="9">
         <v>43611</v>
       </c>
@@ -3420,33 +3731,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="9">
         <v>43612</v>
       </c>
       <c r="B58" s="10">
         <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A58)</f>
-        <v>0</v>
+        <v>6.9166666665114462</v>
       </c>
       <c r="C58" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+        <v>7</v>
+      </c>
+      <c r="D58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="9">
         <v>43613</v>
       </c>
       <c r="B59" s="10">
         <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A59)</f>
-        <v>0</v>
+        <v>6.3499999999185093</v>
       </c>
       <c r="C59" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+        <v>6.5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="9">
         <v>43614</v>
       </c>
@@ -3459,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="9">
         <v>43615</v>
       </c>
@@ -3472,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="9">
         <v>43616</v>
       </c>

--- a/_inbox/OperationRecordOfSectionTreeCreation.xlsx
+++ b/_inbox/OperationRecordOfSectionTreeCreation.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>2019年度部署ツリーに合わせて部署を並べ替える。</t>
     <rPh sb="4" eb="6">
@@ -728,6 +728,79 @@
     <t>時間外で2h</t>
     <rPh sb="0" eb="3">
       <t>ジカンガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数見直し（社内）。</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シャナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作テストの内訳資料の作成（PSC向け）。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウチワケ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ（退職給付費用）</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイショク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キュウフ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正するのは予算策定だが、月次報告に影響はあるのか。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨサン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゲツジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>エイキョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1153,11 +1226,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1174,7 +1247,7 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="F2" t="str">
         <f>ROUNDUP(D4/8,1) &amp; "人日消費"</f>
-        <v>6.9人日消費</v>
+        <v>7.2人日消費</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
@@ -1211,7 +1284,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="6">
         <f>SUMIFS(D5:D1048576, A5:A1048576, "&lt;&gt;")</f>
-        <v>54.616666665882803</v>
+        <v>56.983333332405891</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -2610,7 +2683,7 @@
         <v>43605.501388888886</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" ref="D50:D62" si="10">(C50-B50)*24</f>
+        <f t="shared" ref="D50:D66" si="10">(C50-B50)*24</f>
         <v>0.34999999991850927</v>
       </c>
       <c r="E50" t="s">
@@ -2704,8 +2777,8 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="7">
-        <f>SUM(D54:D62)</f>
-        <v>13.266666666429956</v>
+        <f>SUM(D54:D64)</f>
+        <v>15.299999999580905</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>49</v>
@@ -2724,18 +2797,18 @@
         <v>0.99999999994179234</v>
       </c>
       <c r="J54" s="8">
-        <f t="shared" ref="J54:J62" si="11">IF(B54="", "", DATE(YEAR(B54), MONTH(B54), DAY(B54)))</f>
+        <f t="shared" ref="J54:J64" si="11">IF(B54="", "", DATE(YEAR(B54), MONTH(B54), DAY(B54)))</f>
         <v>43609</v>
       </c>
       <c r="K54" s="8">
-        <f t="shared" ref="K54:K62" si="12">IF(C54="", "", DATE(YEAR(C54), MONTH(C54), DAY(C54)))</f>
+        <f t="shared" ref="K54:K64" si="12">IF(C54="", "", DATE(YEAR(C54), MONTH(C54), DAY(C54)))</f>
         <v>43610</v>
       </c>
       <c r="L54" s="12">
         <v>43612</v>
       </c>
       <c r="M54" s="10">
-        <f t="shared" ref="M54:M62" si="13">IF(L54="", 0, D54)</f>
+        <f t="shared" ref="M54:M64" si="13">IF(L54="", 0, D54)</f>
         <v>0.99999999994179234</v>
       </c>
     </row>
@@ -2788,7 +2861,7 @@
         <v>43612</v>
       </c>
       <c r="L56" s="8">
-        <f t="shared" ref="L54:L62" si="14">IF(J56=K56, J56, "？？？")</f>
+        <f t="shared" ref="L56:L64" si="14">IF(J56=K56, J56, "？？？")</f>
         <v>43612</v>
       </c>
       <c r="M56" s="10">
@@ -2967,6 +3040,130 @@
       <c r="M62" s="10">
         <f t="shared" si="13"/>
         <v>5.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A63" s="2"/>
+      <c r="B63" s="1">
+        <v>43614.427083333336</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43614.46875</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" si="10"/>
+        <v>0.99999999994179234</v>
+      </c>
+      <c r="E63" t="s">
+        <v>51</v>
+      </c>
+      <c r="J63" s="8">
+        <f t="shared" si="11"/>
+        <v>43614</v>
+      </c>
+      <c r="K63" s="8">
+        <f t="shared" si="12"/>
+        <v>43614</v>
+      </c>
+      <c r="L63" s="8">
+        <f t="shared" si="14"/>
+        <v>43614</v>
+      </c>
+      <c r="M63" s="10">
+        <f t="shared" si="13"/>
+        <v>0.99999999994179234</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A64" s="2"/>
+      <c r="B64" s="1">
+        <v>43615.362500000003</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43615.405555555553</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="10"/>
+        <v>1.033333333209157</v>
+      </c>
+      <c r="E64" t="s">
+        <v>52</v>
+      </c>
+      <c r="J64" s="8">
+        <f t="shared" si="11"/>
+        <v>43615</v>
+      </c>
+      <c r="K64" s="8">
+        <f t="shared" si="12"/>
+        <v>43615</v>
+      </c>
+      <c r="L64" s="8">
+        <f t="shared" si="14"/>
+        <v>43615</v>
+      </c>
+      <c r="M64" s="10">
+        <f t="shared" si="13"/>
+        <v>1.033333333209157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="7">
+        <f>SUM(D66)</f>
+        <v>0.33333333337213844</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="J65" s="8" t="str">
+        <f t="shared" ref="J65:J66" si="15">IF(B65="", "", DATE(YEAR(B65), MONTH(B65), DAY(B65)))</f>
+        <v/>
+      </c>
+      <c r="K65" s="8" t="str">
+        <f t="shared" ref="K65:K66" si="16">IF(C65="", "", DATE(YEAR(C65), MONTH(C65), DAY(C65)))</f>
+        <v/>
+      </c>
+      <c r="L65" s="8" t="str">
+        <f t="shared" ref="L65:L66" si="17">IF(J65=K65, J65, "？？？")</f>
+        <v/>
+      </c>
+      <c r="M65" s="10">
+        <f t="shared" ref="M65:M66" si="18">IF(L65="", 0, D65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66" s="2"/>
+      <c r="B66" s="1">
+        <v>43615.440972222219</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43615.454861111109</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" si="10"/>
+        <v>0.33333333337213844</v>
+      </c>
+      <c r="E66" t="s">
+        <v>54</v>
+      </c>
+      <c r="J66" s="8">
+        <f t="shared" si="15"/>
+        <v>43615</v>
+      </c>
+      <c r="K66" s="8">
+        <f t="shared" si="16"/>
+        <v>43615</v>
+      </c>
+      <c r="L66" s="8">
+        <f t="shared" si="17"/>
+        <v>43615</v>
+      </c>
+      <c r="M66" s="10">
+        <f t="shared" si="18"/>
+        <v>0.33333333337213844</v>
       </c>
     </row>
   </sheetData>
@@ -2981,8 +3178,8 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3769,11 +3966,11 @@
       </c>
       <c r="B60" s="10">
         <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A60)</f>
-        <v>0</v>
+        <v>0.99999999994179234</v>
       </c>
       <c r="C60" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -3782,11 +3979,11 @@
       </c>
       <c r="B61" s="10">
         <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A61)</f>
-        <v>0</v>
+        <v>1.3666666665812954</v>
       </c>
       <c r="C61" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">

--- a/_inbox/OperationRecordOfSectionTreeCreation.xlsx
+++ b/_inbox/OperationRecordOfSectionTreeCreation.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>2019年度部署ツリーに合わせて部署を並べ替える。</t>
     <rPh sb="4" eb="6">
@@ -801,6 +801,28 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作テストの工数多くね？　に対して再返信。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1226,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1247,7 +1269,7 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="F2" t="str">
         <f>ROUNDUP(D4/8,1) &amp; "人日消費"</f>
-        <v>7.2人日消費</v>
+        <v>7.3人日消費</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
@@ -1284,7 +1306,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="6">
         <f>SUMIFS(D5:D1048576, A5:A1048576, "&lt;&gt;")</f>
-        <v>56.983333332405891</v>
+        <v>57.949999999080319</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -2683,7 +2705,7 @@
         <v>43605.501388888886</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" ref="D50:D66" si="10">(C50-B50)*24</f>
+        <f t="shared" ref="D50:D67" si="10">(C50-B50)*24</f>
         <v>0.34999999991850927</v>
       </c>
       <c r="E50" t="s">
@@ -2777,8 +2799,8 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="7">
-        <f>SUM(D54:D64)</f>
-        <v>15.299999999580905</v>
+        <f>SUM(D54:D65)</f>
+        <v>16.266666666255333</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>49</v>
@@ -2797,18 +2819,18 @@
         <v>0.99999999994179234</v>
       </c>
       <c r="J54" s="8">
-        <f t="shared" ref="J54:J64" si="11">IF(B54="", "", DATE(YEAR(B54), MONTH(B54), DAY(B54)))</f>
+        <f t="shared" ref="J54:J65" si="11">IF(B54="", "", DATE(YEAR(B54), MONTH(B54), DAY(B54)))</f>
         <v>43609</v>
       </c>
       <c r="K54" s="8">
-        <f t="shared" ref="K54:K64" si="12">IF(C54="", "", DATE(YEAR(C54), MONTH(C54), DAY(C54)))</f>
+        <f t="shared" ref="K54:K65" si="12">IF(C54="", "", DATE(YEAR(C54), MONTH(C54), DAY(C54)))</f>
         <v>43610</v>
       </c>
       <c r="L54" s="12">
         <v>43612</v>
       </c>
       <c r="M54" s="10">
-        <f t="shared" ref="M54:M64" si="13">IF(L54="", 0, D54)</f>
+        <f t="shared" ref="M54:M65" si="13">IF(L54="", 0, D54)</f>
         <v>0.99999999994179234</v>
       </c>
     </row>
@@ -2861,7 +2883,7 @@
         <v>43612</v>
       </c>
       <c r="L56" s="8">
-        <f t="shared" ref="L56:L64" si="14">IF(J56=K56, J56, "？？？")</f>
+        <f t="shared" ref="L56:L65" si="14">IF(J56=K56, J56, "？？？")</f>
         <v>43612</v>
       </c>
       <c r="M56" s="10">
@@ -3083,86 +3105,118 @@
         <v>43615.405555555553</v>
       </c>
       <c r="D64" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D64" si="15">(C64-B64)*24</f>
         <v>1.033333333209157</v>
       </c>
       <c r="E64" t="s">
         <v>52</v>
       </c>
       <c r="J64" s="8">
+        <f t="shared" ref="J64" si="16">IF(B64="", "", DATE(YEAR(B64), MONTH(B64), DAY(B64)))</f>
+        <v>43615</v>
+      </c>
+      <c r="K64" s="8">
+        <f t="shared" ref="K64" si="17">IF(C64="", "", DATE(YEAR(C64), MONTH(C64), DAY(C64)))</f>
+        <v>43615</v>
+      </c>
+      <c r="L64" s="8">
+        <f t="shared" ref="L64" si="18">IF(J64=K64, J64, "？？？")</f>
+        <v>43615</v>
+      </c>
+      <c r="M64" s="10">
+        <f t="shared" ref="M64" si="19">IF(L64="", 0, D64)</f>
+        <v>1.033333333209157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" s="2"/>
+      <c r="B65" s="1">
+        <v>43616.333333333336</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43616.373611111114</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" si="10"/>
+        <v>0.96666666667442769</v>
+      </c>
+      <c r="E65" t="s">
+        <v>55</v>
+      </c>
+      <c r="J65" s="8">
         <f t="shared" si="11"/>
-        <v>43615</v>
-      </c>
-      <c r="K64" s="8">
+        <v>43616</v>
+      </c>
+      <c r="K65" s="8">
         <f t="shared" si="12"/>
-        <v>43615</v>
-      </c>
-      <c r="L64" s="8">
+        <v>43616</v>
+      </c>
+      <c r="L65" s="8">
         <f t="shared" si="14"/>
-        <v>43615</v>
-      </c>
-      <c r="M64" s="10">
+        <v>43616</v>
+      </c>
+      <c r="M65" s="10">
         <f t="shared" si="13"/>
-        <v>1.033333333209157</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A65" s="2" t="s">
+        <v>0.96666666667442769</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="7">
-        <f>SUM(D66)</f>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="7">
+        <f>SUM(D67)</f>
         <v>0.33333333337213844</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="J65" s="8" t="str">
-        <f t="shared" ref="J65:J66" si="15">IF(B65="", "", DATE(YEAR(B65), MONTH(B65), DAY(B65)))</f>
+      <c r="E66" s="2"/>
+      <c r="J66" s="8" t="str">
+        <f t="shared" ref="J66:J67" si="20">IF(B66="", "", DATE(YEAR(B66), MONTH(B66), DAY(B66)))</f>
         <v/>
       </c>
-      <c r="K65" s="8" t="str">
-        <f t="shared" ref="K65:K66" si="16">IF(C65="", "", DATE(YEAR(C65), MONTH(C65), DAY(C65)))</f>
+      <c r="K66" s="8" t="str">
+        <f t="shared" ref="K66:K67" si="21">IF(C66="", "", DATE(YEAR(C66), MONTH(C66), DAY(C66)))</f>
         <v/>
       </c>
-      <c r="L65" s="8" t="str">
-        <f t="shared" ref="L65:L66" si="17">IF(J65=K65, J65, "？？？")</f>
+      <c r="L66" s="8" t="str">
+        <f t="shared" ref="L66:L67" si="22">IF(J66=K66, J66, "？？？")</f>
         <v/>
       </c>
-      <c r="M65" s="10">
-        <f t="shared" ref="M65:M66" si="18">IF(L65="", 0, D65)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A66" s="2"/>
-      <c r="B66" s="1">
+      <c r="M66" s="10">
+        <f t="shared" ref="M66:M67" si="23">IF(L66="", 0, D66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A67" s="2"/>
+      <c r="B67" s="1">
         <v>43615.440972222219</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C67" s="1">
         <v>43615.454861111109</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D67" s="5">
         <f t="shared" si="10"/>
         <v>0.33333333337213844</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>54</v>
       </c>
-      <c r="J66" s="8">
-        <f t="shared" si="15"/>
+      <c r="J67" s="8">
+        <f t="shared" si="20"/>
         <v>43615</v>
       </c>
-      <c r="K66" s="8">
-        <f t="shared" si="16"/>
+      <c r="K67" s="8">
+        <f t="shared" si="21"/>
         <v>43615</v>
       </c>
-      <c r="L66" s="8">
-        <f t="shared" si="17"/>
+      <c r="L67" s="8">
+        <f t="shared" si="22"/>
         <v>43615</v>
       </c>
-      <c r="M66" s="10">
-        <f t="shared" si="18"/>
+      <c r="M67" s="10">
+        <f t="shared" si="23"/>
         <v>0.33333333337213844</v>
       </c>
     </row>
@@ -3992,15 +4046,16 @@
       </c>
       <c r="B62" s="10">
         <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A62)</f>
-        <v>0</v>
+        <v>0.96666666667442769</v>
       </c>
       <c r="C62" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_inbox/OperationRecordOfSectionTreeCreation.xlsx
+++ b/_inbox/OperationRecordOfSectionTreeCreation.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>2019年度部署ツリーに合わせて部署を並べ替える。</t>
     <rPh sb="4" eb="6">
@@ -822,6 +822,28 @@
       <t>フタタ</t>
     </rPh>
     <rPh sb="18" eb="20">
+      <t>ヘンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作テストの工数多くね？　に対して再々返信。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
       <t>ヘンシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1248,7 +1270,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -1269,7 +1291,7 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="F2" t="str">
         <f>ROUNDUP(D4/8,1) &amp; "人日消費"</f>
-        <v>7.3人日消費</v>
+        <v>7.4人日消費</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
@@ -1306,7 +1328,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="6">
         <f>SUMIFS(D5:D1048576, A5:A1048576, "&lt;&gt;")</f>
-        <v>57.949999999080319</v>
+        <v>58.899999999033753</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -2705,7 +2727,7 @@
         <v>43605.501388888886</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" ref="D50:D67" si="10">(C50-B50)*24</f>
+        <f t="shared" ref="D50:D68" si="10">(C50-B50)*24</f>
         <v>0.34999999991850927</v>
       </c>
       <c r="E50" t="s">
@@ -2799,8 +2821,8 @@
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="7">
-        <f>SUM(D54:D65)</f>
-        <v>16.266666666255333</v>
+        <f>SUM(D54:D66)</f>
+        <v>17.216666666208766</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>49</v>
@@ -2819,18 +2841,18 @@
         <v>0.99999999994179234</v>
       </c>
       <c r="J54" s="8">
-        <f t="shared" ref="J54:J65" si="11">IF(B54="", "", DATE(YEAR(B54), MONTH(B54), DAY(B54)))</f>
+        <f t="shared" ref="J54:J66" si="11">IF(B54="", "", DATE(YEAR(B54), MONTH(B54), DAY(B54)))</f>
         <v>43609</v>
       </c>
       <c r="K54" s="8">
-        <f t="shared" ref="K54:K65" si="12">IF(C54="", "", DATE(YEAR(C54), MONTH(C54), DAY(C54)))</f>
+        <f t="shared" ref="K54:K66" si="12">IF(C54="", "", DATE(YEAR(C54), MONTH(C54), DAY(C54)))</f>
         <v>43610</v>
       </c>
       <c r="L54" s="12">
         <v>43612</v>
       </c>
       <c r="M54" s="10">
-        <f t="shared" ref="M54:M65" si="13">IF(L54="", 0, D54)</f>
+        <f t="shared" ref="M54:M66" si="13">IF(L54="", 0, D54)</f>
         <v>0.99999999994179234</v>
       </c>
     </row>
@@ -2883,7 +2905,7 @@
         <v>43612</v>
       </c>
       <c r="L56" s="8">
-        <f t="shared" ref="L56:L65" si="14">IF(J56=K56, J56, "？？？")</f>
+        <f t="shared" ref="L56:L66" si="14">IF(J56=K56, J56, "？？？")</f>
         <v>43612</v>
       </c>
       <c r="M56" s="10">
@@ -3105,26 +3127,26 @@
         <v>43615.405555555553</v>
       </c>
       <c r="D64" s="5">
-        <f t="shared" ref="D64" si="15">(C64-B64)*24</f>
+        <f t="shared" ref="D64:D65" si="15">(C64-B64)*24</f>
         <v>1.033333333209157</v>
       </c>
       <c r="E64" t="s">
         <v>52</v>
       </c>
       <c r="J64" s="8">
-        <f t="shared" ref="J64" si="16">IF(B64="", "", DATE(YEAR(B64), MONTH(B64), DAY(B64)))</f>
+        <f t="shared" ref="J64:J65" si="16">IF(B64="", "", DATE(YEAR(B64), MONTH(B64), DAY(B64)))</f>
         <v>43615</v>
       </c>
       <c r="K64" s="8">
-        <f t="shared" ref="K64" si="17">IF(C64="", "", DATE(YEAR(C64), MONTH(C64), DAY(C64)))</f>
+        <f t="shared" ref="K64:K65" si="17">IF(C64="", "", DATE(YEAR(C64), MONTH(C64), DAY(C64)))</f>
         <v>43615</v>
       </c>
       <c r="L64" s="8">
-        <f t="shared" ref="L64" si="18">IF(J64=K64, J64, "？？？")</f>
+        <f t="shared" ref="L64:L65" si="18">IF(J64=K64, J64, "？？？")</f>
         <v>43615</v>
       </c>
       <c r="M64" s="10">
-        <f t="shared" ref="M64" si="19">IF(L64="", 0, D64)</f>
+        <f t="shared" ref="M64:M65" si="19">IF(L64="", 0, D64)</f>
         <v>1.033333333209157</v>
       </c>
     </row>
@@ -3137,85 +3159,117 @@
         <v>43616.373611111114</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>0.96666666667442769</v>
       </c>
       <c r="E65" t="s">
         <v>55</v>
       </c>
       <c r="J65" s="8">
+        <f t="shared" si="16"/>
+        <v>43616</v>
+      </c>
+      <c r="K65" s="8">
+        <f t="shared" si="17"/>
+        <v>43616</v>
+      </c>
+      <c r="L65" s="8">
+        <f t="shared" si="18"/>
+        <v>43616</v>
+      </c>
+      <c r="M65" s="10">
+        <f t="shared" si="19"/>
+        <v>0.96666666667442769</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66" s="2"/>
+      <c r="B66" s="1">
+        <v>43616.423611111109</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43616.463194444441</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" si="10"/>
+        <v>0.94999999995343387</v>
+      </c>
+      <c r="E66" t="s">
+        <v>56</v>
+      </c>
+      <c r="J66" s="8">
         <f t="shared" si="11"/>
         <v>43616</v>
       </c>
-      <c r="K65" s="8">
+      <c r="K66" s="8">
         <f t="shared" si="12"/>
         <v>43616</v>
       </c>
-      <c r="L65" s="8">
+      <c r="L66" s="8">
         <f t="shared" si="14"/>
         <v>43616</v>
       </c>
-      <c r="M65" s="10">
+      <c r="M66" s="10">
         <f t="shared" si="13"/>
-        <v>0.96666666667442769</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A66" s="2" t="s">
+        <v>0.94999999995343387</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="7">
-        <f>SUM(D67)</f>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="7">
+        <f>SUM(D68)</f>
         <v>0.33333333337213844</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="J66" s="8" t="str">
-        <f t="shared" ref="J66:J67" si="20">IF(B66="", "", DATE(YEAR(B66), MONTH(B66), DAY(B66)))</f>
+      <c r="E67" s="2"/>
+      <c r="J67" s="8" t="str">
+        <f t="shared" ref="J67:J68" si="20">IF(B67="", "", DATE(YEAR(B67), MONTH(B67), DAY(B67)))</f>
         <v/>
       </c>
-      <c r="K66" s="8" t="str">
-        <f t="shared" ref="K66:K67" si="21">IF(C66="", "", DATE(YEAR(C66), MONTH(C66), DAY(C66)))</f>
+      <c r="K67" s="8" t="str">
+        <f t="shared" ref="K67:K68" si="21">IF(C67="", "", DATE(YEAR(C67), MONTH(C67), DAY(C67)))</f>
         <v/>
       </c>
-      <c r="L66" s="8" t="str">
-        <f t="shared" ref="L66:L67" si="22">IF(J66=K66, J66, "？？？")</f>
+      <c r="L67" s="8" t="str">
+        <f t="shared" ref="L67:L68" si="22">IF(J67=K67, J67, "？？？")</f>
         <v/>
       </c>
-      <c r="M66" s="10">
-        <f t="shared" ref="M66:M67" si="23">IF(L66="", 0, D66)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A67" s="2"/>
-      <c r="B67" s="1">
+      <c r="M67" s="10">
+        <f t="shared" ref="M67:M68" si="23">IF(L67="", 0, D67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A68" s="2"/>
+      <c r="B68" s="1">
         <v>43615.440972222219</v>
       </c>
-      <c r="C67" s="1">
+      <c r="C68" s="1">
         <v>43615.454861111109</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D68" s="5">
         <f t="shared" si="10"/>
         <v>0.33333333337213844</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>54</v>
       </c>
-      <c r="J67" s="8">
+      <c r="J68" s="8">
         <f t="shared" si="20"/>
         <v>43615</v>
       </c>
-      <c r="K67" s="8">
+      <c r="K68" s="8">
         <f t="shared" si="21"/>
         <v>43615</v>
       </c>
-      <c r="L67" s="8">
+      <c r="L68" s="8">
         <f t="shared" si="22"/>
         <v>43615</v>
       </c>
-      <c r="M67" s="10">
+      <c r="M68" s="10">
         <f t="shared" si="23"/>
         <v>0.33333333337213844</v>
       </c>
@@ -3232,8 +3286,8 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4046,11 +4100,11 @@
       </c>
       <c r="B62" s="10">
         <f>SUMIFS('2019年度部署ツリー作成'!M:M, '2019年度部署ツリー作成'!L:L, 作業実績報告書に計上する時間!A62)</f>
-        <v>0.96666666667442769</v>
+        <v>1.9166666666278616</v>
       </c>
       <c r="C62" s="11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
